--- a/開発言語/Java/Tomcat.xlsx
+++ b/開発言語/Java/Tomcat.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723d7157f814b9a4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa-mk2\Doc\開発言語\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="572" documentId="11_AD4D066CA252ABDACC1048D241D7EF5A73EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EBFB22-8ADF-46C9-A7E4-88ADF1E1949F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C7A704-FF99-4E9B-9B87-0306106BEFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="15645" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomcat基礎知識" sheetId="4" r:id="rId1"/>
-    <sheet name="2. メモリとパフォーマンスの調整" sheetId="12" r:id="rId2"/>
-    <sheet name="1. Tomcatのインストールと設定" sheetId="5" r:id="rId3"/>
-    <sheet name="2. デプロイメント" sheetId="6" r:id="rId4"/>
-    <sheet name="3. サーブレットとJSP" sheetId="7" r:id="rId5"/>
-    <sheet name="4. ログの設定と管理 " sheetId="8" r:id="rId6"/>
-    <sheet name="6. クラスタリングとセッション管理 " sheetId="10" r:id="rId7"/>
+    <sheet name="1. Tomcatのインストールと設定" sheetId="5" r:id="rId2"/>
+    <sheet name="2. デプロイメント" sheetId="6" r:id="rId3"/>
+    <sheet name="3. サーブレットとJSP" sheetId="7" r:id="rId4"/>
+    <sheet name="4. ログの設定と管理 " sheetId="8" r:id="rId5"/>
+    <sheet name="6. クラスタリングとセッション管理 " sheetId="10" r:id="rId6"/>
+    <sheet name="5. 基本的なセキュリティ設定" sheetId="9" r:id="rId7"/>
     <sheet name="2. ログの読み方" sheetId="11" r:id="rId8"/>
-    <sheet name="5. 基本的なセキュリティ設定" sheetId="9" r:id="rId9"/>
+    <sheet name="2. メモリとパフォーマンスの調整" sheetId="12" r:id="rId9"/>
     <sheet name="起動のながれ" sheetId="1" r:id="rId10"/>
     <sheet name="コンテキスト" sheetId="2" r:id="rId11"/>
     <sheet name="クラスローダー" sheetId="3" r:id="rId12"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="566">
   <si>
     <t>Tomcat</t>
   </si>
@@ -5248,1928 +5248,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tomcat上のWebアプリケーションのCPU使用率が高いです。原因調査は何を見たらよいでしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tomcat上のWebアプリケーションのCPU使用率が高い場合、以下の点を確認して原因を特定することが有効です：</t>
-  </si>
-  <si>
-    <t>1. プロセスの監視</t>
-  </si>
-  <si>
-    <r>
-      <t>top</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンドや</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンドを使用して、CPU使用率が高いプロセスを特定します。例えば、以下のように実行します：</t>
-    </r>
-  </si>
-  <si>
-    <t>または</t>
-  </si>
-  <si>
-    <t>ps -aux | grep tomcat</t>
-  </si>
-  <si>
-    <t>2. スレッドダンプの取得</t>
-  </si>
-  <si>
-    <t>jstack &lt;PID&gt;</t>
-  </si>
-  <si>
-    <t>3. ログの確認</t>
-  </si>
-  <si>
-    <r>
-      <t>Tomcatのログファイル（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>catalina.out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>など）を確認し、エラーや警告が出ていないかをチェックします。特に、再帰処理や無限ループが原因でCPU使用率が高くなることがあります。</t>
-    </r>
-  </si>
-  <si>
-    <t>4. メモリ使用率の確認</t>
-  </si>
-  <si>
-    <t>メモリの使用状況も確認し、メモリリークが原因でCPU使用率が高くなっていないかをチェックします。以下のコマンドで確認できます：</t>
-  </si>
-  <si>
-    <t>5. サードパーティツールの使用</t>
-  </si>
-  <si>
-    <r>
-      <t>パフォーマンスモニターやプロファイリングツール（例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>VisualVM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>YourKit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）を使用して、詳細なパフォーマンスデータを収集し、問題の原因を特定します。</t>
-    </r>
-  </si>
-  <si>
-    <t>6. コードレビュー</t>
-  </si>
-  <si>
-    <t>アプリケーションのコードをレビューし、無駄なループや高負荷の処理がないかを確認します。特に、データベースアクセスやネットワーク通信が原因でCPU使用率が高くなることがあります。</t>
-  </si>
-  <si>
-    <t>free -m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>top</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Process Explorer</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Task Manager</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows以下を使用</t>
-    <rPh sb="7" eb="9">
-      <t>イカ</t>
+    <t>※Windows版には存在しない</t>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Performance Monitor</t>
-    </r>
-  </si>
-  <si>
-    <t>JDKのツール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記参照</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定のプロセスのスレッドダンプを取得する具体的に手順</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手順</t>
-  </si>
-  <si>
-    <t>1. Java Development Kit (JDK) のインストール</t>
-  </si>
-  <si>
-    <t>スレッドダンプを取得するためには、JDKがインストールされている必要があります。OracleまたはOpenJDKのサイトからJDKをダウンロードしてインストールします。</t>
-  </si>
-  <si>
-    <t>2. プロセスID (PID) の取得</t>
-  </si>
-  <si>
-    <r>
-      <t>コマンドプロンプトを開き、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tasklist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンドを使用して、対象のJavaプロセスのPIDを取得します。</t>
-    </r>
-  </si>
-  <si>
-    <t>例えば、以下のコマンドを実行して、"java.exe"という名前のプロセスのPIDを取得します：</t>
-  </si>
-  <si>
-    <t>cmd</t>
-  </si>
-  <si>
-    <t>tasklist /FI "IMAGENAME eq java.exe"</t>
-  </si>
-  <si>
-    <t>3. スレッドダンプの取得</t>
-  </si>
-  <si>
-    <r>
-      <t>JDKの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンドを使用して、取得したPIDのスレッドダンプを取得します。</t>
-    </r>
-  </si>
-  <si>
-    <t>例えば、PIDが1234の場合、以下のようにしてスレッドダンプを取得します：</t>
-  </si>
-  <si>
-    <t>"C:\Program Files\Java\jdk-17\bin\jstack.exe" -l 1234 &gt; C:\path\to\output\thread_dump.txt</t>
-  </si>
-  <si>
-    <t>実行手順</t>
-  </si>
-  <si>
-    <t>1. コマンドプロンプトを開く</t>
-  </si>
-  <si>
-    <r>
-      <t>Windows + R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>キーを押して「ファイル名を指定して実行」ダイアログを開き、「cmd」と入力してEnterキーを押します。</t>
-    </r>
-  </si>
-  <si>
-    <t>2. PIDの取得</t>
-  </si>
-  <si>
-    <t>コマンドプロンプトで以下を実行して、JavaプロセスのPIDを確認します：</t>
-  </si>
-  <si>
-    <t>以下のコマンドを実行して、スレッドダンプを取得します（PIDは取得した値に置き換えてください）：</t>
-  </si>
-  <si>
-    <t>"C:\Program Files\Java\jdk-17\bin\jstack.exe" -l &lt;PID&gt; &gt; C:\path\to\output\thread_dump.txt</t>
-  </si>
-  <si>
-    <r>
-      <t>上記のコマンドでは、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstack.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のフルパスと対象のPID（ここでは1234）を指定し、出力ファイル（例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>thread_dump.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）にスレッドダンプを保存します。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドダンプの読み方</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドダンプの構造</t>
-  </si>
-  <si>
-    <t>スレッドダンプは、複数のスレッドのスタックトレースを含む一連の情報で構成されています。各スレッドについて、以下のような情報が表示されます：</t>
-  </si>
-  <si>
-    <r>
-      <t>1. スレッドの基本情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>スレッド名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの名前。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>スレッドID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの一意の識別子。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>スレッドの状態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの現在の状態（例：RUNNABLE、WAITING、TIMED_WAITING、BLOCKEDなど）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>モニター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドが所有しているモニター（同期オブジェクト）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ロック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドが待機しているロック。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. スタックトレース</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <t>スレッドの実行中のメソッド呼び出しのスタックトレース。</t>
-  </si>
-  <si>
-    <t>各メソッド呼び出しは、実行中のクラス名、メソッド名、ソースファイル、および行番号が表示されます。</t>
-  </si>
-  <si>
-    <t>スレッドダンプの読み方の例</t>
-  </si>
-  <si>
-    <t>以下は、サンプルのスレッドダンプの一部とその説明です：</t>
-  </si>
-  <si>
-    <t>plaintext</t>
-  </si>
-  <si>
-    <t>"main" #1 prio=5 os_prio=0 tid=0x0000000002112000 nid=0x4c0 waiting on condition [0x0000000000000000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   java.lang.Thread.State: WAITING (parking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at sun.misc.Unsafe.park(Native Method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - parking to wait for  &lt;0x000000076b0e26b8&gt; (a java.util.concurrent.CountDownLatch$Sync)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at java.util.concurrent.locks.LockSupport.park(LockSupport.java:175)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.parkAndCheckInterrupt(AbstractQueuedSynchronizer.java:836)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.doAcquireSharedInterruptibly(AbstractQueuedSynchronizer.java:997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.acquireSharedInterruptibly(AbstractQueuedSynchronizer.java:1304)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        at java.util.concurrent.CountDownLatch.await(CountDownLatch.java:231)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ...</t>
-  </si>
-  <si>
-    <t>各要素の説明</t>
-  </si>
-  <si>
-    <r>
-      <t>1. スレッド名と基本情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"main"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの名前（ここでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>スレッド）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>#1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドID。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>prio=5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの優先度。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>os_prio=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：オペレーティングシステムの優先度。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tid=0x0000000002112000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドID（システム依存の値）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nid=0x4c0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：ネイティブスレッドID。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>waiting on condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの現在の状態（ここでは条件を待機中）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. スレッドの状態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>java.lang.Thread.State: WAITING (parking)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドの状態（ここでは待機中で、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Unsafe.park</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メソッドを使用してパーキングされている）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. スタックトレース</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <t>各行は、メソッド呼び出しのスタックフレームを示します。</t>
-  </si>
-  <si>
-    <r>
-      <t>at sun.misc.Unsafe.park(Native Method)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Unsafe.park</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メソッドがネイティブメソッドとして呼び出されている。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- parking to wait for &lt;0x000000076b0e26b8&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：スレッドが特定のオブジェクト（ここでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>java.util.concurrent.CountDownLatch$Sync</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）のためにパーキングされている。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>at java.util.concurrent.locks.LockSupport.park(LockSupport.java:175)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>LockSupport.park</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メソッドが呼び出されている。</t>
-    </r>
-  </si>
-  <si>
-    <t>デッドロックの検出</t>
-  </si>
-  <si>
-    <t>スレッドダンプはデッドロックを検出するのにも役立ちます。デッドロックが発生している場合、スレッドダンプにはデッドロックに関する情報が表示されます。デッドロックの例：</t>
-  </si>
-  <si>
-    <t>Found one Java-level deadlock:</t>
-  </si>
-  <si>
-    <t>=============================</t>
-  </si>
-  <si>
-    <t>"Thread-1":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  which is held by "Thread-2"</t>
-  </si>
-  <si>
-    <t>"Thread-2":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  waiting to lock monitor 0x00007f0a8b4b3e98 (object 0x000000076b0e26b9, a java.lang.Object),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  which is held by "Thread-1"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>waiting to lock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> monitor 0x00007f0a8b4b3e68 (object 0x000000076b0e26b8, a java.lang.Object),</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定のプロセスのスレッドダンプを取得し、スタックトレースを確認します。これにより、どのスレッドがCPUリソースを多く消費しているかを特定できます。以下のように実行します：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドダンプからどのスレッドがCPUリソースを多く消費しているかを特定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドダンプ単独では、どのスレッドがCPUリソースを多く消費しているかを直接的に示すことはできません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ただし、スレッドダンプを活用しつつ、追加のツールやコマンドを使用して、特定のスレッドがCPUを多く使用しているかどうかを特定することができます。以下にその手順を説明します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. プロセスID（PID）を確認</t>
-  </si>
-  <si>
-    <t>CPU使用率が高いJavaプロセスのPIDを特定します。</t>
-  </si>
-  <si>
-    <r>
-      <t>Windowsのタスクマネージャー、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tasklist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンド、または</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Process Explorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>などのツールを使用してPIDを確認します。</t>
-    </r>
-  </si>
-  <si>
-    <t>2. CPU使用率の高いスレッドを特定</t>
-  </si>
-  <si>
-    <r>
-      <t>高CPU使用率のスレッドを特定するために、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コマンドを使用します。</t>
-    </r>
-  </si>
-  <si>
-    <t>PIDが1234の場合、以下のコマンドを使用して各スレッドのCPU使用率を取得します：</t>
-  </si>
-  <si>
-    <t>jstack -l 1234 &gt; thread_dump.txt</t>
-  </si>
-  <si>
-    <t>3. スレッドのネイティブID（nid）を確認</t>
-  </si>
-  <si>
-    <r>
-      <t>スレッドダンプから各スレッドのネイティブID（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）を確認します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>は16進数で表示されます。</t>
-    </r>
-  </si>
-  <si>
-    <t>以下のような行が含まれます：</t>
-  </si>
-  <si>
-    <t>4. ネイティブIDを10進数に変換</t>
-  </si>
-  <si>
-    <r>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を10進数に変換します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>例えば、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid=0x1234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の場合、10進数に変換すると</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4660</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>です。</t>
-    </r>
-  </si>
-  <si>
-    <t>5. プロセスのスレッド情報を取得</t>
-  </si>
-  <si>
-    <r>
-      <t>jstack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の結果を使用して、各スレッドの状態やスタックトレースを確認します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>高CPU使用率のスレッドの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>や</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を特定し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>jstack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の出力と照合します。</t>
-    </r>
-  </si>
-  <si>
-    <t>例</t>
-  </si>
-  <si>
-    <t>以下に、特定のスレッドがCPUリソースを多く消費しているかどうかを特定する手順の一例を示します：</t>
-  </si>
-  <si>
-    <r>
-      <t>1. jstack</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を使用してスレッドダンプを取得</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. nid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を10進数に変換</t>
-    </r>
-  </si>
-  <si>
-    <t>nid=0x1234 → 4660</t>
-  </si>
-  <si>
-    <r>
-      <t>2. スレッドダンプファイルから高CPU使用率のスレッドの</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を確認</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"main" #1 prio=5 os_prio=0 tid=0x00007f0a8b4b3e00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid=0x1234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> runnable [0x0000000000000000]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>4. タスクマネージャーや</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Process Explorer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を使用して、特定の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（4660）を持つスレッドのCPU使用率を確認</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Process Explorerのメインウィンドウで、java.exeを探します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスを右クリックし、「プロパティ」を選択します。</t>
-    </r>
-  </si>
-  <si>
-    <t>プロパティウィンドウの「スレッド」タブを選択します。ここで、各スレッドのCPU使用率が表示されます。</t>
-  </si>
-  <si>
-    <t>CPUカラムでソートし、CPU使用率が高いスレッドのTID（スレッドID）を確認します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高CPU使用率のスレッドを特定するには、スレッドダンプ自体だけではなく、別のツールと組み合わせて特定する必要があります。以下にその手順を詳しく説明します。</t>
-  </si>
-  <si>
-    <t>1. CPU使用率の高いスレッドの特定</t>
-  </si>
-  <si>
-    <t>SysinternalsのサイトからProcess Explorerをダウンロードしてインストールします。Process Explorer</t>
-  </si>
-  <si>
-    <r>
-      <t>2. Process Explorerを起動</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>管理者としてProcess Explorerを起動します。</t>
-  </si>
-  <si>
-    <r>
-      <t>3. 特定のJavaプロセスを見つける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Process Explorerのメインウィンドウで、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を探します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. スレッド情報を表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. 高CPU使用率のスレッドを特定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>カラムでソートし、CPU使用率が高いスレッドの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（スレッドID）を確認します。</t>
-    </r>
-  </si>
-  <si>
-    <t>2. スレッドダンプと照合</t>
-  </si>
-  <si>
-    <r>
-      <t>上記の手順で特定した高CPU使用率のスレッドの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>をスレッドダンプ内で照合します。以下の手順で照合します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. スレッドダンプファイルの確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>例えば、以下のようなスレッドダンプの一部を確認します：</t>
-  </si>
-  <si>
-    <t>"Thread-1" #21 prio=5 os_prio=0 tid=0x00007f0a8b4b3e00 nid=0x1234 runnable [0x0000000000000000]</t>
-  </si>
-  <si>
-    <r>
-      <t>2. スレッドIDの変換</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Process Explorerで確認したTIDが、例えば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4660</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>だった場合、これを16進数に変換すると</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0x1234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>になります。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3. スレッドダンプ内で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を検索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nid=0x1234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のスレッドをスレッドダンプファイル内で検索します。このスレッドが高CPU使用率のスレッドです。</t>
-    </r>
-  </si>
-  <si>
-    <t>https://learn.microsoft.com/en-us/sysinternals/downloads/process-explorer?form=MG0AV3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1. Process Explorerをダウンロード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>では、タスクマネージャーまたは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Process Explorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を使って、特定のプロセス内の各スレッドのCPU使用率を確認できます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Ctrl + Shift + Esc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>キーを押してタスクマネージャーを開く。</t>
-    </r>
-  </si>
-  <si>
-    <t>もしくは、タスクバーを右クリックして「タスクマネージャー」を選択します。</t>
-  </si>
-  <si>
-    <t>初めてタスクマネージャーを開いた場合、「詳細(D)」をクリックして詳細ビューを表示します。</t>
-  </si>
-  <si>
-    <r>
-      <t>「プロセス」タブを選択し、「名前」カラムで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスを見つけます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスを右クリックし、「詳細の表示(G)」を選択します。これにより「詳細」タブが選択された状態で詳細ビューに切り替わります。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>「詳細」タブで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスを探し、右クリックして「プロセスツリーの分析(A)」を選択します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスを右クリックし、「詳細タブへ移動(M)」を選択します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>「詳細」タブで、対象の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロセスが選択された状態で右クリックし、「スレッドの表示(T)」を選択します。これにより、すべてのスレッドの情報が表示されます。</t>
-    </r>
-  </si>
-  <si>
-    <t>「CPU」カラムでソートし、CPU使用率が高いスレッドのTID（スレッドID）を確認します。</t>
-  </si>
-  <si>
-    <t>Windowsの標準的なプロセス監視ツールで、各プロセスおよびスレッドのCPU使用率を確認することができます。</t>
-  </si>
-  <si>
-    <t>1. タスクマネージャーを開く</t>
-  </si>
-  <si>
-    <t>2. 詳細ビューを表示</t>
-  </si>
-  <si>
-    <t>3. Javaプロセスを見つける</t>
-  </si>
-  <si>
-    <t>4. スレッドの詳細を表示</t>
-  </si>
-  <si>
-    <t>5. スレッドの情報を表示</t>
-  </si>
-  <si>
-    <t>6. 高CPU使用率のスレッドを特定</t>
-  </si>
-  <si>
-    <t>手順（Process Explorerを使用する場合）：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手順（タスクマネージャを使用する場合）：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7177,7 +5262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7249,18 +5334,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7285,7 +5380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7307,7 +5402,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7348,18 +5442,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7643,9 +5732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1CFE-1097-44ED-8C5B-FC7EF9963A9F}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7663,107 +5750,107 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7773,35 +5860,35 @@
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7811,35 +5898,35 @@
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7853,7 +5940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7966,17 +6053,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A621281-2811-4B8A-9D01-4EDF30505CE8}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD99"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="11"/>
+    <col min="1" max="1" width="3.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8021,7 +6108,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8086,7 +6173,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8149,7 +6236,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8199,7 +6286,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8224,7 +6311,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8309,7 +6396,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8324,32 +6411,32 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8359,37 +6446,37 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8418,21 +6505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE67514-E676-483B-B9D2-CF768C0F415F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="106.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="75">
+    <row r="1" spans="1:1" ht="56.25">
       <c r="A1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="75">
+    <row r="2" spans="1:1" ht="56.25">
       <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
@@ -8454,1451 +6539,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615992E-3480-4697-AD2D-A3FC76F0E8D1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F352"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5">
-      <c r="B3" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.5">
-      <c r="B14" s="14"/>
-      <c r="C14" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="14"/>
-      <c r="C15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5">
-      <c r="B16" s="14"/>
-      <c r="C16" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="14"/>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="14"/>
-      <c r="D19" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="D21" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="19.5">
-      <c r="C23" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="16" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="C30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="C33" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="22.5">
-      <c r="B37" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5">
-      <c r="D43" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="D45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" s="16" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="D47" s="16" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="D48" s="16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="D49" s="16" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="D50" s="16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="16" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="16" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="D53" s="16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="D54" s="16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="D63" s="13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="D64" s="13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="D65" s="13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="D66" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="D74" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="E76" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="E77" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="E79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="E81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="E82" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="B87" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="22.5">
-      <c r="B89" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="B90" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="C92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="C93" s="16" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="C94" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="C95" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="C96" s="16" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="C97" s="16"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="C98" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="C99" s="16"/>
-      <c r="D99" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="C100" s="16"/>
-      <c r="D100" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="C101" s="16"/>
-    </row>
-    <row r="102" spans="2:4" ht="22.5">
-      <c r="B102" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="C105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="C106" s="16" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="C108" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="C109" s="16"/>
-      <c r="D109" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="C110" s="16"/>
-      <c r="D110" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="22.5">
-      <c r="B112" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="B113" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="22.5">
-      <c r="B115" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="C118" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="C119" s="16" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
-      <c r="C121" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="D122" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" ht="22.5">
-      <c r="B125" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
-      <c r="B126" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" ht="22.5">
-      <c r="B128" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="B129" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="22.5">
-      <c r="B133" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="B134" s="12"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="B135" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="B136" s="14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="B137" s="12"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="B138" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" s="14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="B140" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="B141" s="14"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="C142" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="C143" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="B144" s="12"/>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="14"/>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="C149" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="C150" s="16" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="14"/>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="14" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" ht="22.5">
-      <c r="B154" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="12"/>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="12"/>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="14" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="B161" s="14"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="C162" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="C163" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="B164" s="12"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="B165" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="B166" s="14" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" s="14"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="C168" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="C169" s="16" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="22.5">
-      <c r="B174" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="C175" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="B176" s="12"/>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3">
-      <c r="B181" s="18" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3">
-      <c r="B182" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="12"/>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="13" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="14" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="14" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="22.5">
-      <c r="B188" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3">
-      <c r="C189" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3">
-      <c r="C191" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3">
-      <c r="C192" s="16" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3">
-      <c r="C193" s="16" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3">
-      <c r="C194" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3">
-      <c r="C195" s="16" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3">
-      <c r="C196" s="16" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3">
-      <c r="C197" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3">
-      <c r="C198" s="16" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3">
-      <c r="C199" s="16" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3">
-      <c r="C200" s="16" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" ht="22.5">
-      <c r="B202" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
-      <c r="B203" s="13" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3">
-      <c r="B204" s="15" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" s="15" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="15" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3">
-      <c r="B207" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3">
-      <c r="B208" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="12"/>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="15" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="12"/>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="14" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="14"/>
-    </row>
-    <row r="218" spans="2:3">
-      <c r="B218" s="15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="15" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" ht="22.5">
-      <c r="B222" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3">
-      <c r="C223" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="C225" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="C226" s="16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="C227" s="16" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="C228" s="16" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="C229" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="C230" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="C231" s="16" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="C232" s="16" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="B237" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="B238" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="22.5">
-      <c r="B240" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="B241" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3">
-      <c r="B242" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" s="14" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="B244" s="12"/>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" s="13" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="B246" s="14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="B248" s="14"/>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="C249" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="C250" s="16" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="12"/>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="13" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="14"/>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="14" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="14"/>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="C257" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="C258" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="12"/>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="13" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="14" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="12"/>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="13" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="14" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" ht="22.5">
-      <c r="B268" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="C269" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3">
-      <c r="C270" s="12"/>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="C271" s="27" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3">
-      <c r="C272" s="28"/>
-    </row>
-    <row r="273" spans="3:5">
-      <c r="C273" s="29"/>
-      <c r="D273" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5">
-      <c r="C274" s="29"/>
-      <c r="D274" s="16" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5">
-      <c r="C275" s="28"/>
-    </row>
-    <row r="276" spans="3:5">
-      <c r="C276" s="13" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5">
-      <c r="C277" s="28"/>
-    </row>
-    <row r="278" spans="3:5">
-      <c r="C278" s="29"/>
-      <c r="D278" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5">
-      <c r="C279" s="29"/>
-      <c r="D279" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5">
-      <c r="C280" s="28"/>
-    </row>
-    <row r="281" spans="3:5">
-      <c r="C281" s="27" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5">
-      <c r="C282" s="12"/>
-    </row>
-    <row r="283" spans="3:5">
-      <c r="D283" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5">
-      <c r="D284" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5">
-      <c r="C285" s="12"/>
-    </row>
-    <row r="286" spans="3:5">
-      <c r="C286" s="13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5">
-      <c r="E288" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="289" spans="2:6">
-      <c r="E289" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="290" spans="2:6">
-      <c r="E290" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="291" spans="2:6">
-      <c r="E291" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="293" spans="2:6">
-      <c r="B293" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="295" spans="2:6" ht="22.5">
-      <c r="C295" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6">
-      <c r="D296" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="298" spans="2:6" ht="19.5">
-      <c r="D298" s="17" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="299" spans="2:6">
-      <c r="E299" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="300" spans="2:6">
-      <c r="E300" s="14" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="301" spans="2:6">
-      <c r="E301" s="12"/>
-      <c r="F301" s="26" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="302" spans="2:6">
-      <c r="E302" s="12"/>
-      <c r="F302" s="26"/>
-    </row>
-    <row r="303" spans="2:6">
-      <c r="E303" s="13" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="304" spans="2:6">
-      <c r="E304" s="14" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="305" spans="4:5">
-      <c r="E305" s="12"/>
-    </row>
-    <row r="306" spans="4:5">
-      <c r="E306" s="13" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="307" spans="4:5">
-      <c r="E307" s="14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="308" spans="4:5">
-      <c r="E308" s="12"/>
-    </row>
-    <row r="309" spans="4:5">
-      <c r="E309" s="13" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="310" spans="4:5">
-      <c r="E310" s="15" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="311" spans="4:5">
-      <c r="E311" s="14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="312" spans="4:5">
-      <c r="E312" s="12"/>
-    </row>
-    <row r="313" spans="4:5">
-      <c r="E313" s="13" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="314" spans="4:5">
-      <c r="E314" s="15" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="316" spans="4:5" ht="22.5">
-      <c r="D316" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="317" spans="4:5">
-      <c r="E317" s="13" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="318" spans="4:5">
-      <c r="E318" s="15" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="319" spans="4:5">
-      <c r="E319" s="14" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="320" spans="4:5">
-      <c r="E320" s="12"/>
-    </row>
-    <row r="321" spans="5:5">
-      <c r="E321" s="13" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="322" spans="5:5">
-      <c r="E322" s="14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="323" spans="5:5">
-      <c r="E323" s="12"/>
-    </row>
-    <row r="324" spans="5:5">
-      <c r="E324" s="13" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="325" spans="5:5">
-      <c r="E325" s="14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="326" spans="5:5">
-      <c r="E326" s="12"/>
-    </row>
-    <row r="327" spans="5:5">
-      <c r="E327" s="13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="328" spans="5:5">
-      <c r="E328" s="15" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="329" spans="5:5">
-      <c r="E329" s="14" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="330" spans="5:5">
-      <c r="E330" s="12"/>
-    </row>
-    <row r="331" spans="5:5">
-      <c r="E331" s="13" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="332" spans="5:5">
-      <c r="E332" s="15" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="333" spans="5:5">
-      <c r="E333" s="14" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="334" spans="5:5">
-      <c r="E334" s="12"/>
-    </row>
-    <row r="335" spans="5:5">
-      <c r="E335" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="336" spans="5:5">
-      <c r="E336" s="14" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="338" spans="3:4" ht="22.5">
-      <c r="C338" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="339" spans="3:4">
-      <c r="D339" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="340" spans="3:4">
-      <c r="C340" s="12"/>
-    </row>
-    <row r="341" spans="3:4">
-      <c r="C341" s="13" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="342" spans="3:4">
-      <c r="C342" s="14" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="343" spans="3:4">
-      <c r="C343" s="14"/>
-    </row>
-    <row r="344" spans="3:4">
-      <c r="D344" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="345" spans="3:4">
-      <c r="D345" s="16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="346" spans="3:4">
-      <c r="C346" s="12"/>
-    </row>
-    <row r="347" spans="3:4">
-      <c r="C347" s="13" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="348" spans="3:4">
-      <c r="C348" s="14" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="349" spans="3:4">
-      <c r="C349" s="12"/>
-    </row>
-    <row r="350" spans="3:4">
-      <c r="C350" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="351" spans="3:4">
-      <c r="C351" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="352" spans="3:4">
-      <c r="D352" t="s">
-        <v>724</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="F301" r:id="rId1" xr:uid="{714176E0-665E-43FB-925D-36F87D00BFB5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6592E61-3AA0-4947-B87A-71D0751A167D}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="25.5">
+      <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9913,12 +6567,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9943,22 +6597,22 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -9973,22 +6627,22 @@
       </c>
     </row>
     <row r="21" spans="2:2" ht="19.5">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
@@ -9996,17 +6650,17 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="19.5">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10021,12 +6675,12 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -10046,22 +6700,22 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10076,7 +6730,7 @@
       </c>
     </row>
     <row r="48" spans="2:2" ht="19.5">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10091,67 +6745,67 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="19.5">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10166,37 +6820,37 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -10208,6 +6862,426 @@
     <row r="78" spans="2:2">
       <c r="B78" t="s">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA17871-D169-4660-A80D-60DBA61CA68A}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5">
+      <c r="A1" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5">
+      <c r="B3" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="C85" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="22.5">
+      <c r="B87" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10217,417 +7291,283 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA17871-D169-4660-A80D-60DBA61CA68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1F3B6-14C9-4B2A-B117-A1A0BE58F5D4}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>195</v>
+    <row r="1" spans="1:2" ht="25.5">
+      <c r="A1" s="27" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.5">
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="13" t="s">
-        <v>197</v>
+      <c r="B5" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
-        <v>198</v>
+      <c r="B6" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="19" t="s">
-        <v>199</v>
+      <c r="B7" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="14" t="s">
-        <v>201</v>
+      <c r="B10" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>144</v>
+      <c r="B11" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="16" t="s">
-        <v>202</v>
+      <c r="B12" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="18" t="s">
-        <v>203</v>
+      <c r="B14" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="19" t="s">
-        <v>204</v>
+      <c r="B15" s="14" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="B16" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="C65" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="C66" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="C68" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="C69" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="C70" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="C71" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="C72" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="C78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="C79" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="C80" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="C81" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="C82" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="C83" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="C84" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="C85" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="22.5">
-      <c r="B87" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="22.5">
+      <c r="B31" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="D42" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="22.5">
+      <c r="B60" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" t="s">
-        <v>253</v>
+    <row r="61" spans="2:4">
+      <c r="B61" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -10637,306 +7577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1F3B6-14C9-4B2A-B117-A1A0BE58F5D4}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.5">
-      <c r="B3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="C28" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="C29" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="22.5">
-      <c r="B31" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="D40" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="D41" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="D43" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="D47" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="22.5">
-      <c r="B60" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E835C4-4BF8-4A42-8207-37B4C74385F6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="25.5">
+      <c r="A1" s="27" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10946,41 +7600,38 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="9"/>
-    </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>324</v>
       </c>
     </row>
@@ -10990,38 +7641,38 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>312</v>
       </c>
     </row>
@@ -11031,60 +7682,60 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11114,17 +7765,17 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>331</v>
       </c>
     </row>
@@ -11134,36 +7785,36 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="B52" s="12"/>
-      <c r="D52" s="26" t="s">
+      <c r="B52" s="11"/>
+      <c r="D52" s="24" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>337</v>
       </c>
     </row>
@@ -11186,7 +7837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035A17D-55A1-423B-BDEC-677F448A6797}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11194,13 +7845,13 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="25.5">
+      <c r="A1" s="27" t="s">
         <v>404</v>
       </c>
     </row>
@@ -11220,140 +7871,140 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -11363,62 +8014,62 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="14"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="14"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="14"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>436</v>
       </c>
     </row>
@@ -11468,26 +8119,465 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="12"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
         <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D1929-4DE6-4AA2-B507-B1F8D7D1DF0B}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5">
+      <c r="A1" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5">
+      <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="22.5">
+      <c r="B25" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="11"/>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="11"/>
+      <c r="D32" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="22.5">
+      <c r="B34" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="22.5">
+      <c r="B50" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="C65" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="22.5">
+      <c r="B68" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="D74" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="D75" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="D77" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="22.5">
+      <c r="B79" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="C82" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="C83" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="D85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="D86" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="D87" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="C89" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="D92" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="22.5">
+      <c r="B94" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="D101" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="D102" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -11501,328 +8591,337 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="25.5">
+      <c r="A1" s="27" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:4" ht="22.5">
       <c r="B3" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="13" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" s="17" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:4">
+      <c r="C7" s="17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="13" t="s">
+    <row r="8" spans="1:4">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="17"/>
+      <c r="D9" s="25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="18" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="18" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" s="17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="18" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" s="17" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="18" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="13" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="18" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="17" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="18" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="17" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="13" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="12" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="18" t="s">
+    <row r="24" spans="3:4">
+      <c r="C24" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="18" t="s">
+    <row r="25" spans="3:4">
+      <c r="C25" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="13" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="18" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="18" t="s">
+    <row r="29" spans="3:4">
+      <c r="C29" s="17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="22.5">
-      <c r="C29" s="2" t="s">
+    <row r="31" spans="3:4" ht="22.5">
+      <c r="C31" s="2" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="D30" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="D33" s="16" t="s">
+    <row r="35" spans="3:4">
+      <c r="D35" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="D34" s="16" t="s">
+    <row r="36" spans="3:4">
+      <c r="D36" s="15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="D36" s="16" t="s">
+    <row r="37" spans="3:4">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="15" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="D37" s="16" t="s">
+    <row r="39" spans="3:4">
+      <c r="D39" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" s="16" t="s">
+    <row r="40" spans="3:4">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="D40" s="16" t="s">
+    <row r="42" spans="3:4">
+      <c r="D42" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="D41" s="16" t="s">
+    <row r="43" spans="3:4">
+      <c r="D43" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="16" t="s">
+    <row r="44" spans="3:4">
+      <c r="D44" s="15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="D43" s="16" t="s">
+    <row r="45" spans="3:4">
+      <c r="D45" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="C45" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="22.5">
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="2:3" ht="22.5">
+      <c r="B49" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="C48" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="C50" s="13" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="12" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="18" t="s">
+    <row r="53" spans="2:3">
+      <c r="C53" s="17" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" s="13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="12" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="18" t="s">
+    <row r="57" spans="2:3">
+      <c r="C57" s="17" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="18" t="s">
+    <row r="61" spans="2:3">
+      <c r="C61" s="17" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="18" t="s">
+    <row r="65" spans="3:4">
+      <c r="C65" s="17" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" s="14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="18" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" s="17" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="18" t="s">
+    <row r="73" spans="3:4">
+      <c r="C73" s="17" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="14" t="s">
+    <row r="74" spans="3:4">
+      <c r="C74" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="3:4" ht="22.5">
-      <c r="C74" s="2" t="s">
+    <row r="76" spans="3:4" ht="22.5">
+      <c r="C76" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
-      <c r="D75" t="s">
+    <row r="77" spans="3:4">
+      <c r="D77" t="s">
         <v>508</v>
       </c>
     </row>
@@ -11833,431 +8932,335 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D1929-4DE6-4AA2-B507-B1F8D7D1DF0B}">
-  <dimension ref="A1:D104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615992E-3480-4697-AD2D-A3FC76F0E8D1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>341</v>
+    <row r="1" spans="1:3" ht="25.5">
+      <c r="A1" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="12" t="s">
-        <v>343</v>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="C6" s="11" t="s">
-        <v>357</v>
+      <c r="B6" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="21" t="s">
-        <v>358</v>
+      <c r="B7" s="17" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="12"/>
+      <c r="B8" s="17" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="16" t="s">
-        <v>184</v>
-      </c>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="16" t="s">
-        <v>359</v>
+      <c r="B10" s="12" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="16" t="s">
-        <v>360</v>
+      <c r="B11" s="13" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="16" t="s">
-        <v>361</v>
+      <c r="B12" s="13" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="16" t="s">
-        <v>363</v>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5">
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="16" t="s">
-        <v>365</v>
+      <c r="B15" s="13"/>
+      <c r="C15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5">
+      <c r="B16" s="13"/>
+      <c r="C16" s="9" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="C17" s="16" t="s">
-        <v>366</v>
-      </c>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="16" t="s">
-        <v>367</v>
+      <c r="B18" s="13"/>
+      <c r="D18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="C19" s="16" t="s">
-        <v>360</v>
+      <c r="B19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="C20" s="16" t="s">
-        <v>368</v>
+      <c r="D20" s="15" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="22.5">
-      <c r="B25" s="2" t="s">
-        <v>344</v>
+      <c r="D21" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19.5">
+      <c r="C23" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="12" t="s">
-        <v>345</v>
+      <c r="D26" s="15" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="12"/>
+      <c r="D27" s="15" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>370</v>
+      <c r="D28" s="15" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="C30" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="12"/>
-      <c r="D31" t="s">
+      <c r="C31" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" s="12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="C34" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="22.5">
+      <c r="B37" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5">
+      <c r="D43" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="D48" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="D56" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="D63" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="D64" s="12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="D65" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="D66" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="D74" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="E76" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="E77" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="12"/>
-      <c r="D32" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="22.5">
-      <c r="B34" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="22.5">
-      <c r="B50" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="C54" s="21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="16" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="C65" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="C66" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="22.5">
-      <c r="B68" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="D71" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="D72" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="D74" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="D75" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="D76" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="D77" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="22.5">
-      <c r="B79" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="C82" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="C83" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="12"/>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="D85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="D86" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="D87" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="12"/>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="C89" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="D91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="D92" s="16" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="22.5">
-      <c r="B94" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="C97" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="C98" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="D100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="D101" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="D102" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="s">
-        <v>356</v>
+    <row r="82" spans="5:5">
+      <c r="E82" s="15" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/開発言語/Java/Tomcat.xlsx
+++ b/開発言語/Java/Tomcat.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa-mk2\Doc\開発言語\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723d7157f814b9a4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C7A704-FF99-4E9B-9B87-0306106BEFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="572" documentId="11_AD4D066CA252ABDACC1048D241D7EF5A73EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EBFB22-8ADF-46C9-A7E4-88ADF1E1949F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="0" windowWidth="15645" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomcat基礎知識" sheetId="4" r:id="rId1"/>
-    <sheet name="1. Tomcatのインストールと設定" sheetId="5" r:id="rId2"/>
-    <sheet name="2. デプロイメント" sheetId="6" r:id="rId3"/>
-    <sheet name="3. サーブレットとJSP" sheetId="7" r:id="rId4"/>
-    <sheet name="4. ログの設定と管理 " sheetId="8" r:id="rId5"/>
-    <sheet name="6. クラスタリングとセッション管理 " sheetId="10" r:id="rId6"/>
-    <sheet name="5. 基本的なセキュリティ設定" sheetId="9" r:id="rId7"/>
+    <sheet name="2. メモリとパフォーマンスの調整" sheetId="12" r:id="rId2"/>
+    <sheet name="1. Tomcatのインストールと設定" sheetId="5" r:id="rId3"/>
+    <sheet name="2. デプロイメント" sheetId="6" r:id="rId4"/>
+    <sheet name="3. サーブレットとJSP" sheetId="7" r:id="rId5"/>
+    <sheet name="4. ログの設定と管理 " sheetId="8" r:id="rId6"/>
+    <sheet name="6. クラスタリングとセッション管理 " sheetId="10" r:id="rId7"/>
     <sheet name="2. ログの読み方" sheetId="11" r:id="rId8"/>
-    <sheet name="2. メモリとパフォーマンスの調整" sheetId="12" r:id="rId9"/>
+    <sheet name="5. 基本的なセキュリティ設定" sheetId="9" r:id="rId9"/>
     <sheet name="起動のながれ" sheetId="1" r:id="rId10"/>
     <sheet name="コンテキスト" sheetId="2" r:id="rId11"/>
     <sheet name="クラスローダー" sheetId="3" r:id="rId12"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="733">
   <si>
     <t>Tomcat</t>
   </si>
@@ -5248,13 +5248,1928 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※Windows版には存在しない</t>
-    <rPh sb="8" eb="9">
-      <t>バン</t>
+    <t>Tomcat上のWebアプリケーションのCPU使用率が高いです。原因調査は何を見たらよいでしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomcat上のWebアプリケーションのCPU使用率が高い場合、以下の点を確認して原因を特定することが有効です：</t>
+  </si>
+  <si>
+    <t>1. プロセスの監視</t>
+  </si>
+  <si>
+    <r>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドや</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドを使用して、CPU使用率が高いプロセスを特定します。例えば、以下のように実行します：</t>
+    </r>
+  </si>
+  <si>
+    <t>または</t>
+  </si>
+  <si>
+    <t>ps -aux | grep tomcat</t>
+  </si>
+  <si>
+    <t>2. スレッドダンプの取得</t>
+  </si>
+  <si>
+    <t>jstack &lt;PID&gt;</t>
+  </si>
+  <si>
+    <t>3. ログの確認</t>
+  </si>
+  <si>
+    <r>
+      <t>Tomcatのログファイル（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>catalina.out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など）を確認し、エラーや警告が出ていないかをチェックします。特に、再帰処理や無限ループが原因でCPU使用率が高くなることがあります。</t>
+    </r>
+  </si>
+  <si>
+    <t>4. メモリ使用率の確認</t>
+  </si>
+  <si>
+    <t>メモリの使用状況も確認し、メモリリークが原因でCPU使用率が高くなっていないかをチェックします。以下のコマンドで確認できます：</t>
+  </si>
+  <si>
+    <t>5. サードパーティツールの使用</t>
+  </si>
+  <si>
+    <r>
+      <t>パフォーマンスモニターやプロファイリングツール（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>VisualVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>YourKit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を使用して、詳細なパフォーマンスデータを収集し、問題の原因を特定します。</t>
+    </r>
+  </si>
+  <si>
+    <t>6. コードレビュー</t>
+  </si>
+  <si>
+    <t>アプリケーションのコードをレビューし、無駄なループや高負荷の処理がないかを確認します。特に、データベースアクセスやネットワーク通信が原因でCPU使用率が高くなることがあります。</t>
+  </si>
+  <si>
+    <t>free -m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Process Explorer</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Task Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows以下を使用</t>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソンザイ</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance Monitor</t>
+    </r>
+  </si>
+  <si>
+    <t>JDKのツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記参照</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のプロセスのスレッドダンプを取得する具体的に手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>1. Java Development Kit (JDK) のインストール</t>
+  </si>
+  <si>
+    <t>スレッドダンプを取得するためには、JDKがインストールされている必要があります。OracleまたはOpenJDKのサイトからJDKをダウンロードしてインストールします。</t>
+  </si>
+  <si>
+    <t>2. プロセスID (PID) の取得</t>
+  </si>
+  <si>
+    <r>
+      <t>コマンドプロンプトを開き、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tasklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドを使用して、対象のJavaプロセスのPIDを取得します。</t>
+    </r>
+  </si>
+  <si>
+    <t>例えば、以下のコマンドを実行して、"java.exe"という名前のプロセスのPIDを取得します：</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>tasklist /FI "IMAGENAME eq java.exe"</t>
+  </si>
+  <si>
+    <t>3. スレッドダンプの取得</t>
+  </si>
+  <si>
+    <r>
+      <t>JDKの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドを使用して、取得したPIDのスレッドダンプを取得します。</t>
+    </r>
+  </si>
+  <si>
+    <t>例えば、PIDが1234の場合、以下のようにしてスレッドダンプを取得します：</t>
+  </si>
+  <si>
+    <t>"C:\Program Files\Java\jdk-17\bin\jstack.exe" -l 1234 &gt; C:\path\to\output\thread_dump.txt</t>
+  </si>
+  <si>
+    <t>実行手順</t>
+  </si>
+  <si>
+    <t>1. コマンドプロンプトを開く</t>
+  </si>
+  <si>
+    <r>
+      <t>Windows + R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キーを押して「ファイル名を指定して実行」ダイアログを開き、「cmd」と入力してEnterキーを押します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. PIDの取得</t>
+  </si>
+  <si>
+    <t>コマンドプロンプトで以下を実行して、JavaプロセスのPIDを確認します：</t>
+  </si>
+  <si>
+    <t>以下のコマンドを実行して、スレッドダンプを取得します（PIDは取得した値に置き換えてください）：</t>
+  </si>
+  <si>
+    <t>"C:\Program Files\Java\jdk-17\bin\jstack.exe" -l &lt;PID&gt; &gt; C:\path\to\output\thread_dump.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>上記のコマンドでは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstack.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のフルパスと対象のPID（ここでは1234）を指定し、出力ファイル（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>thread_dump.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）にスレッドダンプを保存します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドダンプの読み方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドダンプの構造</t>
+  </si>
+  <si>
+    <t>スレッドダンプは、複数のスレッドのスタックトレースを含む一連の情報で構成されています。各スレッドについて、以下のような情報が表示されます：</t>
+  </si>
+  <si>
+    <r>
+      <t>1. スレッドの基本情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>スレッド名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの名前。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>スレッドID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの一意の識別子。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>スレッドの状態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの現在の状態（例：RUNNABLE、WAITING、TIMED_WAITING、BLOCKEDなど）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>モニター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドが所有しているモニター（同期オブジェクト）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ロック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドが待機しているロック。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. スタックトレース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>スレッドの実行中のメソッド呼び出しのスタックトレース。</t>
+  </si>
+  <si>
+    <t>各メソッド呼び出しは、実行中のクラス名、メソッド名、ソースファイル、および行番号が表示されます。</t>
+  </si>
+  <si>
+    <t>スレッドダンプの読み方の例</t>
+  </si>
+  <si>
+    <t>以下は、サンプルのスレッドダンプの一部とその説明です：</t>
+  </si>
+  <si>
+    <t>plaintext</t>
+  </si>
+  <si>
+    <t>"main" #1 prio=5 os_prio=0 tid=0x0000000002112000 nid=0x4c0 waiting on condition [0x0000000000000000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   java.lang.Thread.State: WAITING (parking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at sun.misc.Unsafe.park(Native Method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - parking to wait for  &lt;0x000000076b0e26b8&gt; (a java.util.concurrent.CountDownLatch$Sync)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at java.util.concurrent.locks.LockSupport.park(LockSupport.java:175)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.parkAndCheckInterrupt(AbstractQueuedSynchronizer.java:836)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.doAcquireSharedInterruptibly(AbstractQueuedSynchronizer.java:997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at java.util.concurrent.locks.AbstractQueuedSynchronizer.acquireSharedInterruptibly(AbstractQueuedSynchronizer.java:1304)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        at java.util.concurrent.CountDownLatch.await(CountDownLatch.java:231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ...</t>
+  </si>
+  <si>
+    <t>各要素の説明</t>
+  </si>
+  <si>
+    <r>
+      <t>1. スレッド名と基本情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"main"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの名前（ここでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スレッド）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドID。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prio=5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの優先度。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os_prio=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：オペレーティングシステムの優先度。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tid=0x0000000002112000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドID（システム依存の値）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nid=0x4c0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：ネイティブスレッドID。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>waiting on condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの現在の状態（ここでは条件を待機中）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. スレッドの状態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.lang.Thread.State: WAITING (parking)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドの状態（ここでは待機中で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Unsafe.park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メソッドを使用してパーキングされている）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. スタックトレース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>各行は、メソッド呼び出しのスタックフレームを示します。</t>
+  </si>
+  <si>
+    <r>
+      <t>at sun.misc.Unsafe.park(Native Method)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Unsafe.park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メソッドがネイティブメソッドとして呼び出されている。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- parking to wait for &lt;0x000000076b0e26b8&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：スレッドが特定のオブジェクト（ここでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>java.util.concurrent.CountDownLatch$Sync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）のためにパーキングされている。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>at java.util.concurrent.locks.LockSupport.park(LockSupport.java:175)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>LockSupport.park</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メソッドが呼び出されている。</t>
+    </r>
+  </si>
+  <si>
+    <t>デッドロックの検出</t>
+  </si>
+  <si>
+    <t>スレッドダンプはデッドロックを検出するのにも役立ちます。デッドロックが発生している場合、スレッドダンプにはデッドロックに関する情報が表示されます。デッドロックの例：</t>
+  </si>
+  <si>
+    <t>Found one Java-level deadlock:</t>
+  </si>
+  <si>
+    <t>=============================</t>
+  </si>
+  <si>
+    <t>"Thread-1":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  which is held by "Thread-2"</t>
+  </si>
+  <si>
+    <t>"Thread-2":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  waiting to lock monitor 0x00007f0a8b4b3e98 (object 0x000000076b0e26b9, a java.lang.Object),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  which is held by "Thread-1"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>waiting to lock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> monitor 0x00007f0a8b4b3e68 (object 0x000000076b0e26b8, a java.lang.Object),</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のプロセスのスレッドダンプを取得し、スタックトレースを確認します。これにより、どのスレッドがCPUリソースを多く消費しているかを特定できます。以下のように実行します：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドダンプからどのスレッドがCPUリソースを多く消費しているかを特定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドダンプ単独では、どのスレッドがCPUリソースを多く消費しているかを直接的に示すことはできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、スレッドダンプを活用しつつ、追加のツールやコマンドを使用して、特定のスレッドがCPUを多く使用しているかどうかを特定することができます。以下にその手順を説明します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. プロセスID（PID）を確認</t>
+  </si>
+  <si>
+    <t>CPU使用率が高いJavaプロセスのPIDを特定します。</t>
+  </si>
+  <si>
+    <r>
+      <t>Windowsのタスクマネージャー、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tasklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンド、または</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Process Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などのツールを使用してPIDを確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. CPU使用率の高いスレッドを特定</t>
+  </si>
+  <si>
+    <r>
+      <t>高CPU使用率のスレッドを特定するために、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドを使用します。</t>
+    </r>
+  </si>
+  <si>
+    <t>PIDが1234の場合、以下のコマンドを使用して各スレッドのCPU使用率を取得します：</t>
+  </si>
+  <si>
+    <t>jstack -l 1234 &gt; thread_dump.txt</t>
+  </si>
+  <si>
+    <t>3. スレッドのネイティブID（nid）を確認</t>
+  </si>
+  <si>
+    <r>
+      <t>スレッドダンプから各スレッドのネイティブID（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を確認します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は16進数で表示されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>以下のような行が含まれます：</t>
+  </si>
+  <si>
+    <t>4. ネイティブIDを10進数に変換</t>
+  </si>
+  <si>
+    <r>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を10進数に変換します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例えば、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid=0x1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合、10進数に変換すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. プロセスのスレッド情報を取得</t>
+  </si>
+  <si>
+    <r>
+      <t>jstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の結果を使用して、各スレッドの状態やスタックトレースを確認します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高CPU使用率のスレッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を特定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の出力と照合します。</t>
+    </r>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>以下に、特定のスレッドがCPUリソースを多く消費しているかどうかを特定する手順の一例を示します：</t>
+  </si>
+  <si>
+    <r>
+      <t>1. jstack</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用してスレッドダンプを取得</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. nid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を10進数に変換</t>
+    </r>
+  </si>
+  <si>
+    <t>nid=0x1234 → 4660</t>
+  </si>
+  <si>
+    <r>
+      <t>2. スレッドダンプファイルから高CPU使用率のスレッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を確認</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"main" #1 prio=5 os_prio=0 tid=0x00007f0a8b4b3e00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid=0x1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> runnable [0x0000000000000000]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>4. タスクマネージャーや</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Process Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用して、特定の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（4660）を持つスレッドのCPU使用率を確認</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Process Explorerのメインウィンドウで、java.exeを探します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスを右クリックし、「プロパティ」を選択します。</t>
+    </r>
+  </si>
+  <si>
+    <t>プロパティウィンドウの「スレッド」タブを選択します。ここで、各スレッドのCPU使用率が表示されます。</t>
+  </si>
+  <si>
+    <t>CPUカラムでソートし、CPU使用率が高いスレッドのTID（スレッドID）を確認します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高CPU使用率のスレッドを特定するには、スレッドダンプ自体だけではなく、別のツールと組み合わせて特定する必要があります。以下にその手順を詳しく説明します。</t>
+  </si>
+  <si>
+    <t>1. CPU使用率の高いスレッドの特定</t>
+  </si>
+  <si>
+    <t>SysinternalsのサイトからProcess Explorerをダウンロードしてインストールします。Process Explorer</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Process Explorerを起動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>管理者としてProcess Explorerを起動します。</t>
+  </si>
+  <si>
+    <r>
+      <t>3. 特定のJavaプロセスを見つける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Process Explorerのメインウィンドウで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を探します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. スレッド情報を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. 高CPU使用率のスレッドを特定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カラムでソートし、CPU使用率が高いスレッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（スレッドID）を確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. スレッドダンプと照合</t>
+  </si>
+  <si>
+    <r>
+      <t>上記の手順で特定した高CPU使用率のスレッドの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をスレッドダンプ内で照合します。以下の手順で照合します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. スレッドダンプファイルの確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>例えば、以下のようなスレッドダンプの一部を確認します：</t>
+  </si>
+  <si>
+    <t>"Thread-1" #21 prio=5 os_prio=0 tid=0x00007f0a8b4b3e00 nid=0x1234 runnable [0x0000000000000000]</t>
+  </si>
+  <si>
+    <r>
+      <t>2. スレッドIDの変換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Process Explorerで確認したTIDが、例えば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だった場合、これを16進数に変換すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0x1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. スレッドダンプ内で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nid=0x1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のスレッドをスレッドダンプファイル内で検索します。このスレッドが高CPU使用率のスレッドです。</t>
+    </r>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/sysinternals/downloads/process-explorer?form=MG0AV3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Process Explorerをダウンロード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>では、タスクマネージャーまたは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Process Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使って、特定のプロセス内の各スレッドのCPU使用率を確認できます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ctrl + Shift + Esc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キーを押してタスクマネージャーを開く。</t>
+    </r>
+  </si>
+  <si>
+    <t>もしくは、タスクバーを右クリックして「タスクマネージャー」を選択します。</t>
+  </si>
+  <si>
+    <t>初めてタスクマネージャーを開いた場合、「詳細(D)」をクリックして詳細ビューを表示します。</t>
+  </si>
+  <si>
+    <r>
+      <t>「プロセス」タブを選択し、「名前」カラムで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスを見つけます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスを右クリックし、「詳細の表示(G)」を選択します。これにより「詳細」タブが選択された状態で詳細ビューに切り替わります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「詳細」タブで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスを探し、右クリックして「プロセスツリーの分析(A)」を選択します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスを右クリックし、「詳細タブへ移動(M)」を選択します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「詳細」タブで、対象の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロセスが選択された状態で右クリックし、「スレッドの表示(T)」を選択します。これにより、すべてのスレッドの情報が表示されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>「CPU」カラムでソートし、CPU使用率が高いスレッドのTID（スレッドID）を確認します。</t>
+  </si>
+  <si>
+    <t>Windowsの標準的なプロセス監視ツールで、各プロセスおよびスレッドのCPU使用率を確認することができます。</t>
+  </si>
+  <si>
+    <t>1. タスクマネージャーを開く</t>
+  </si>
+  <si>
+    <t>2. 詳細ビューを表示</t>
+  </si>
+  <si>
+    <t>3. Javaプロセスを見つける</t>
+  </si>
+  <si>
+    <t>4. スレッドの詳細を表示</t>
+  </si>
+  <si>
+    <t>5. スレッドの情報を表示</t>
+  </si>
+  <si>
+    <t>6. 高CPU使用率のスレッドを特定</t>
+  </si>
+  <si>
+    <t>手順（Process Explorerを使用する場合）：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順（タスクマネージャを使用する場合）：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5262,7 +7177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5334,28 +7249,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5380,7 +7285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5402,6 +7307,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5442,13 +7348,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5732,7 +7643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1CFE-1097-44ED-8C5B-FC7EF9963A9F}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5750,107 +7663,107 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5860,35 +7773,35 @@
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5898,35 +7811,35 @@
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="11"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5940,7 +7853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6053,17 +7966,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A621281-2811-4B8A-9D01-4EDF30505CE8}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="10"/>
+    <col min="1" max="1" width="3.625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6108,7 +8021,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6173,7 +8086,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6236,7 +8149,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6286,7 +8199,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6311,7 +8224,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6396,7 +8309,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6411,32 +8324,32 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6446,37 +8359,37 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6505,19 +8418,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE67514-E676-483B-B9D2-CF768C0F415F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="106.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="56.25">
+    <row r="1" spans="1:1" ht="75">
       <c r="A1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="56.25">
+    <row r="2" spans="1:1" ht="75">
       <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
@@ -6539,20 +8454,1451 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615992E-3480-4697-AD2D-A3FC76F0E8D1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F352"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G339" sqref="G339"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5">
+      <c r="B3" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="14"/>
+      <c r="C15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5">
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="14"/>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="14"/>
+      <c r="D19" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="D21" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19.5">
+      <c r="C23" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="C31" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="C34" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="22.5">
+      <c r="B37" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5">
+      <c r="D43" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="D48" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="D56" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="D63" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="D64" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="D65" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="D66" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="D74" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="E76" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="E77" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="E82" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="B87" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="22.5">
+      <c r="B89" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="C93" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="C94" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="C96" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="16"/>
+      <c r="D99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="16"/>
+      <c r="D100" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="2:4" ht="22.5">
+      <c r="B102" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="16"/>
+      <c r="D109" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" s="16"/>
+      <c r="D110" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="22.5">
+      <c r="B112" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="22.5">
+      <c r="B115" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="C118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="C119" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="C121" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="D122" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="22.5">
+      <c r="B125" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="22.5">
+      <c r="B128" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="22.5">
+      <c r="B133" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" s="12"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="C149" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="C150" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="22.5">
+      <c r="B154" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="12"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="12"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="C162" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="C163" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" s="12"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="B165" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="C168" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" s="16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="22.5">
+      <c r="B174" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" s="12"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="12"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="22.5">
+      <c r="B188" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="C189" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="C191" s="16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="C192" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="C193" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="C194" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="C195" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="C196" s="16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="C197" s="16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="C198" s="16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="C199" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="C200" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="22.5">
+      <c r="B202" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="12"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="12"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="13" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="14"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="22.5">
+      <c r="B222" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="C223" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="C225" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="C226" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="C227" s="16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="C228" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="C229" s="16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="C230" s="16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="C231" s="16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="C232" s="16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="B237" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="B238" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="22.5">
+      <c r="B240" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="12"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="14"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="12"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="14"/>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="C257" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="C258" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="12"/>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="12"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="22.5">
+      <c r="B268" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="C269" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="C270" s="12"/>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="C271" s="27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="C272" s="28"/>
+    </row>
+    <row r="273" spans="3:5">
+      <c r="C273" s="29"/>
+      <c r="D273" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5">
+      <c r="C274" s="29"/>
+      <c r="D274" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5">
+      <c r="C275" s="28"/>
+    </row>
+    <row r="276" spans="3:5">
+      <c r="C276" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5">
+      <c r="C277" s="28"/>
+    </row>
+    <row r="278" spans="3:5">
+      <c r="C278" s="29"/>
+      <c r="D278" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5">
+      <c r="C279" s="29"/>
+      <c r="D279" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5">
+      <c r="C280" s="28"/>
+    </row>
+    <row r="281" spans="3:5">
+      <c r="C281" s="27" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5">
+      <c r="C282" s="12"/>
+    </row>
+    <row r="283" spans="3:5">
+      <c r="D283" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="284" spans="3:5">
+      <c r="D284" s="16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="285" spans="3:5">
+      <c r="C285" s="12"/>
+    </row>
+    <row r="286" spans="3:5">
+      <c r="C286" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="288" spans="3:5">
+      <c r="E288" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="E289" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="E290" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6">
+      <c r="E291" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6">
+      <c r="B293" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" ht="22.5">
+      <c r="C295" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6">
+      <c r="D296" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" ht="19.5">
+      <c r="D298" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
+      <c r="E299" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6">
+      <c r="E300" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="E301" s="12"/>
+      <c r="F301" s="26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="E302" s="12"/>
+      <c r="F302" s="26"/>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="E303" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="E304" s="14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="E306" s="13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="E307" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="E309" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="E310" s="15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="E311" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="E313" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="E314" s="15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5" ht="22.5">
+      <c r="D316" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="E317" s="13" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5">
+      <c r="E318" s="15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5">
+      <c r="E319" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5">
+      <c r="E320" s="12"/>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" s="14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" s="12"/>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5">
+      <c r="E325" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5">
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5">
+      <c r="E328" s="15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5">
+      <c r="E329" s="14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5">
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" spans="5:5">
+      <c r="E331" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5">
+      <c r="E332" s="15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5">
+      <c r="E333" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5">
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" spans="5:5">
+      <c r="E335" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5">
+      <c r="E336" s="14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" ht="22.5">
+      <c r="C338" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4">
+      <c r="D339" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4">
+      <c r="C340" s="12"/>
+    </row>
+    <row r="341" spans="3:4">
+      <c r="C341" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4">
+      <c r="C342" s="14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4">
+      <c r="C343" s="14"/>
+    </row>
+    <row r="344" spans="3:4">
+      <c r="D344" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4">
+      <c r="D345" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4">
+      <c r="C346" s="12"/>
+    </row>
+    <row r="347" spans="3:4">
+      <c r="C347" s="13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4">
+      <c r="C348" s="14" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4">
+      <c r="C349" s="12"/>
+    </row>
+    <row r="350" spans="3:4">
+      <c r="C350" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4">
+      <c r="C351" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4">
+      <c r="D352" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F301" r:id="rId1" xr:uid="{714176E0-665E-43FB-925D-36F87D00BFB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6592E61-3AA0-4947-B87A-71D0751A167D}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6567,12 +9913,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6597,22 +9943,22 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6627,22 +9973,22 @@
       </c>
     </row>
     <row r="21" spans="2:2" ht="19.5">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
@@ -6650,17 +9996,17 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="19.5">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6675,12 +10021,12 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6700,22 +10046,22 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6730,7 +10076,7 @@
       </c>
     </row>
     <row r="48" spans="2:2" ht="19.5">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6745,67 +10091,67 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="19.5">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="17" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6820,37 +10166,37 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="16" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6870,7 +10216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA17871-D169-4660-A80D-60DBA61CA68A}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -6878,7 +10224,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6886,8 +10232,8 @@
     <col min="1" max="1" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6897,33 +10243,33 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6933,28 +10279,28 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6964,41 +10310,41 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7008,64 +10354,64 @@
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7075,68 +10421,68 @@
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="13"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7146,93 +10492,93 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="16" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="13"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="20" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="13"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="C77" s="13"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
@@ -7240,37 +10586,37 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="16" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="16" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7282,292 +10628,6 @@
     <row r="89" spans="2:3">
       <c r="B89" t="s">
         <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1F3B6-14C9-4B2A-B117-A1A0BE58F5D4}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="25.5">
-      <c r="A1" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.5">
-      <c r="B3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="C27" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="C28" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="C29" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="22.5">
-      <c r="B31" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="D40" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="D41" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="D43" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="D47" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="22.5">
-      <c r="B60" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7577,20 +10637,306 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1F3B6-14C9-4B2A-B117-A1A0BE58F5D4}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5">
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="22.5">
+      <c r="B31" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="D42" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="22.5">
+      <c r="B60" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E835C4-4BF8-4A42-8207-37B4C74385F6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7600,38 +10946,41 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>301</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="9"/>
+    </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="24" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7641,38 +10990,38 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7682,60 +11031,60 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7765,17 +11114,17 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7785,36 +11134,36 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="B52" s="11"/>
-      <c r="D52" s="24" t="s">
+      <c r="B52" s="12"/>
+      <c r="D52" s="26" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="11"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7837,7 +11186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035A17D-55A1-423B-BDEC-677F448A6797}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -7845,13 +11194,13 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7871,140 +11220,140 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8014,62 +11363,62 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="11"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="13"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8119,465 +11468,26 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="11"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="13" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
         <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D1929-4DE6-4AA2-B507-B1F8D7D1DF0B}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D104"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="25.5">
-      <c r="A1" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5">
-      <c r="B3" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="C19" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="22.5">
-      <c r="B25" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="11"/>
-      <c r="C28" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="11"/>
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="11"/>
-      <c r="D32" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="22.5">
-      <c r="B34" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="22.5">
-      <c r="B50" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="C54" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="C65" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="C66" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="22.5">
-      <c r="B68" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="D71" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="D72" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="D74" s="15" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="D75" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="D76" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="D77" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="22.5">
-      <c r="B79" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="C82" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="C83" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="11"/>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="D85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="D86" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="D87" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="11"/>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="C89" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="C90" s="11"/>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="D91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="D92" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="22.5">
-      <c r="B94" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="C97" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="C98" s="20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="C99" s="11"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="D100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="D101" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="D102" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -8591,337 +11501,328 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.5">
+    <row r="3" spans="1:3" ht="22.5">
       <c r="B3" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="12" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:3">
+      <c r="C6" s="18" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" s="18" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="17"/>
-      <c r="D9" s="25" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="12" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="17" t="s">
+    <row r="10" spans="1:3">
+      <c r="C10" s="18" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="17" t="s">
+    <row r="11" spans="1:3">
+      <c r="C11" s="18" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="12" t="s">
+    <row r="12" spans="1:3">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="17" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" s="18" t="s">
         <v>464</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="12"/>
+    </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="17" t="s">
-        <v>465</v>
+      <c r="C17" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="11"/>
+      <c r="C18" s="18" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="12" t="s">
-        <v>466</v>
+      <c r="C19" s="18" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="17" t="s">
-        <v>467</v>
-      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="17" t="s">
-        <v>468</v>
+      <c r="C21" s="13" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="11"/>
+      <c r="C22" s="18" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="12" t="s">
-        <v>469</v>
+      <c r="C23" s="18" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="17" t="s">
-        <v>470</v>
-      </c>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="17" t="s">
-        <v>471</v>
+      <c r="C25" s="13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="11"/>
+      <c r="C26" s="18" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="22.5">
-      <c r="C31" s="2" t="s">
+    <row r="29" spans="3:4" ht="22.5">
+      <c r="C29" s="2" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="D34" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="D35" s="15" t="s">
+    <row r="33" spans="2:4">
+      <c r="D33" s="16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="D36" s="15" t="s">
+    <row r="34" spans="2:4">
+      <c r="D34" s="16" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="D38" s="15" t="s">
+    <row r="35" spans="2:4">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="D36" s="16" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="D39" s="15" t="s">
+    <row r="37" spans="2:4">
+      <c r="D37" s="16" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="D41" s="15" t="s">
+    <row r="38" spans="2:4">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="16" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="D42" s="15" t="s">
+    <row r="40" spans="2:4">
+      <c r="D40" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="D43" s="15" t="s">
+    <row r="41" spans="2:4">
+      <c r="D41" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="D44" s="15" t="s">
+    <row r="42" spans="2:4">
+      <c r="D42" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
-      <c r="D45" s="15" t="s">
+    <row r="43" spans="2:4">
+      <c r="D43" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
+    <row r="45" spans="2:4">
+      <c r="C45" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="22.5">
-      <c r="B49" s="2" t="s">
+    <row r="47" spans="2:4" ht="22.5">
+      <c r="B47" s="2" t="s">
         <v>488</v>
       </c>
     </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="12"/>
+    </row>
     <row r="50" spans="2:3">
-      <c r="C50" t="s">
-        <v>509</v>
+      <c r="C50" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="11"/>
+      <c r="C51" s="18" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="C52" s="12" t="s">
-        <v>501</v>
+      <c r="C52" s="14" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="C53" s="17" t="s">
-        <v>489</v>
-      </c>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" s="13" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="C55" s="11"/>
+      <c r="C55" s="18" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="C56" s="12" t="s">
-        <v>502</v>
+      <c r="C56" s="14" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="C57" s="17" t="s">
-        <v>491</v>
-      </c>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" s="13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="C59" s="11"/>
+      <c r="C59" s="18" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="C60" s="12" t="s">
-        <v>503</v>
+      <c r="C60" s="14" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="C61" s="17" t="s">
-        <v>493</v>
-      </c>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" s="13" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="C63" s="11"/>
+      <c r="C63" s="18" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="C64" s="12" t="s">
-        <v>504</v>
+      <c r="C64" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="17" t="s">
-        <v>495</v>
-      </c>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="13" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="11"/>
+      <c r="C67" s="18" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="12" t="s">
-        <v>505</v>
+      <c r="C68" s="14" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="17" t="s">
-        <v>497</v>
-      </c>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="13" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="11"/>
+      <c r="C71" s="18" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="13" t="s">
+      <c r="C72" s="14" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="3:4" ht="22.5">
-      <c r="C76" s="2" t="s">
+    <row r="74" spans="3:4" ht="22.5">
+      <c r="C74" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
-      <c r="D77" t="s">
+    <row r="75" spans="3:4">
+      <c r="D75" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8932,335 +11833,431 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615992E-3480-4697-AD2D-A3FC76F0E8D1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D1929-4DE6-4AA2-B507-B1F8D7D1DF0B}">
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5">
-      <c r="A1" s="26" t="s">
-        <v>511</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="B3" s="2" t="s">
-        <v>512</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="12" t="s">
-        <v>513</v>
+      <c r="B4" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="17" t="s">
-        <v>514</v>
+      <c r="C6" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="17" t="s">
-        <v>515</v>
+      <c r="C7" s="21" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="17" t="s">
-        <v>516</v>
-      </c>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="12" t="s">
-        <v>517</v>
+      <c r="C10" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="13" t="s">
-        <v>518</v>
+      <c r="C11" s="16" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="13" t="s">
-        <v>519</v>
+      <c r="C12" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.5">
-      <c r="B14" s="13"/>
-      <c r="C14" s="2" t="s">
-        <v>529</v>
+      <c r="C13" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="16" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="13"/>
-      <c r="C15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5">
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
-        <v>531</v>
+      <c r="C15" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="16" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="13"/>
+      <c r="C17" s="16" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="13"/>
-      <c r="D18" t="s">
+      <c r="C18" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="22.5">
+      <c r="B25" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="12"/>
+      <c r="C28" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="12"/>
+      <c r="D31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="D21" s="15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="19.5">
-      <c r="C23" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="C30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="12" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="C33" s="12" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="22.5">
-      <c r="B37" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="13" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5">
-      <c r="D43" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="D45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="D47" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="D48" s="15" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="D49" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="D50" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="D53" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="D54" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="D63" s="12" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="D64" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="D65" s="12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="D66" s="12" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="D74" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="E76" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="E77" s="12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="E79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" t="s">
+      <c r="B32" s="12"/>
+      <c r="D32" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="22.5">
+      <c r="B34" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="22.5">
+      <c r="B50" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="C65" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="22.5">
+      <c r="B68" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="D74" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="D75" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="D77" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="22.5">
+      <c r="B79" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="C82" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="C83" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="C84" s="12"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="D85" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="15" t="s">
-        <v>562</v>
+    <row r="86" spans="2:4">
+      <c r="D86" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="D87" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="C89" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="D92" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="22.5">
+      <c r="B94" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="12"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="D101" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="D102" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
